--- a/Stocks/ACB/Minute.xlsx
+++ b/Stocks/ACB/Minute.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1900"/>
+  <dimension ref="A1:G1899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44081,29 +44081,6 @@
         <v>72747</v>
       </c>
     </row>
-    <row r="1900" spans="1:7">
-      <c r="A1900" s="2">
-        <v>44596.66666666666</v>
-      </c>
-      <c r="B1900">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="C1900">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="D1900">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="E1900">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="F1900">
-        <v>4.210000038146973</v>
-      </c>
-      <c r="G1900">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
